--- a/data/raw/election/voters-age-sex-education/2023/Burdur.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Burdur.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:31:40-15495417789" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="40">
   <si>
     <t>Burdur</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Yeşilova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -666,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -686,10 +692,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1014,10 +1029,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:N292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:A292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,20 +1052,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2084,17 +2099,17 @@
       <c r="D30" s="5">
         <v>189</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.2909999999999999</v>
+      <c r="E30" s="7">
+        <v>2291</v>
       </c>
       <c r="F30" s="5">
         <v>666</v>
       </c>
-      <c r="G30" s="5">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1.2350000000000001</v>
+      <c r="G30" s="7">
+        <v>1019</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1235</v>
       </c>
       <c r="I30" s="5">
         <v>608</v>
@@ -2108,8 +2123,8 @@
       <c r="L30" s="5">
         <v>24</v>
       </c>
-      <c r="M30" s="5">
-        <v>6.1970000000000001</v>
+      <c r="M30" s="7">
+        <v>6197</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3122,8 +3137,8 @@
       <c r="D56" s="5">
         <v>310</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.5509999999999999</v>
+      <c r="E56" s="7">
+        <v>1551</v>
       </c>
       <c r="F56" s="5">
         <v>410</v>
@@ -3146,8 +3161,8 @@
       <c r="L56" s="5">
         <v>51</v>
       </c>
-      <c r="M56" s="5">
-        <v>4.2839999999999998</v>
+      <c r="M56" s="7">
+        <v>4284</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3211,8 +3226,8 @@
       <c r="G58" s="4">
         <v>844</v>
       </c>
-      <c r="H58" s="4">
-        <v>2.0419999999999998</v>
+      <c r="H58" s="9">
+        <v>2042</v>
       </c>
       <c r="I58" s="4">
         <v>464</v>
@@ -3226,8 +3241,8 @@
       <c r="L58" s="4">
         <v>15</v>
       </c>
-      <c r="M58" s="5">
-        <v>3.3820000000000001</v>
+      <c r="M58" s="7">
+        <v>3382</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3250,8 +3265,8 @@
       <c r="G59" s="4">
         <v>592</v>
       </c>
-      <c r="H59" s="4">
-        <v>2.0270000000000001</v>
+      <c r="H59" s="9">
+        <v>2027</v>
       </c>
       <c r="I59" s="4">
         <v>662</v>
@@ -3265,8 +3280,8 @@
       <c r="L59" s="4">
         <v>6</v>
       </c>
-      <c r="M59" s="5">
-        <v>3.3090000000000002</v>
+      <c r="M59" s="7">
+        <v>3309</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3294,8 +3309,8 @@
       <c r="H60" s="4">
         <v>746</v>
       </c>
-      <c r="I60" s="4">
-        <v>1.0009999999999999</v>
+      <c r="I60" s="9">
+        <v>1001</v>
       </c>
       <c r="J60" s="4">
         <v>74</v>
@@ -3306,8 +3321,8 @@
       <c r="L60" s="4">
         <v>4</v>
       </c>
-      <c r="M60" s="5">
-        <v>2.23</v>
+      <c r="M60" s="7">
+        <v>2230</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3333,8 +3348,8 @@
       <c r="H61" s="4">
         <v>488</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.1299999999999999</v>
+      <c r="I61" s="9">
+        <v>1130</v>
       </c>
       <c r="J61" s="4">
         <v>104</v>
@@ -3345,8 +3360,8 @@
       <c r="L61" s="4">
         <v>11</v>
       </c>
-      <c r="M61" s="5">
-        <v>2.1190000000000002</v>
+      <c r="M61" s="7">
+        <v>2119</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3386,8 +3401,8 @@
       <c r="L62" s="4">
         <v>8</v>
       </c>
-      <c r="M62" s="5">
-        <v>2.0539999999999998</v>
+      <c r="M62" s="7">
+        <v>2054</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3425,8 +3440,8 @@
       <c r="L63" s="4">
         <v>11</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.9870000000000001</v>
+      <c r="M63" s="7">
+        <v>1987</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3466,8 +3481,8 @@
       <c r="L64" s="4">
         <v>5</v>
       </c>
-      <c r="M64" s="5">
-        <v>2.1629999999999998</v>
+      <c r="M64" s="7">
+        <v>2163</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3505,8 +3520,8 @@
       <c r="L65" s="4">
         <v>11</v>
       </c>
-      <c r="M65" s="5">
-        <v>2.1539999999999999</v>
+      <c r="M65" s="7">
+        <v>2154</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3546,8 +3561,8 @@
       <c r="L66" s="4">
         <v>6</v>
       </c>
-      <c r="M66" s="5">
-        <v>2.4390000000000001</v>
+      <c r="M66" s="7">
+        <v>2439</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3585,8 +3600,8 @@
       <c r="L67" s="4">
         <v>7</v>
       </c>
-      <c r="M67" s="5">
-        <v>2.2749999999999999</v>
+      <c r="M67" s="7">
+        <v>2275</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3626,8 +3641,8 @@
       <c r="L68" s="4">
         <v>10</v>
       </c>
-      <c r="M68" s="5">
-        <v>2.2999999999999998</v>
+      <c r="M68" s="7">
+        <v>2300</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3665,8 +3680,8 @@
       <c r="L69" s="4">
         <v>9</v>
       </c>
-      <c r="M69" s="5">
-        <v>2.2829999999999999</v>
+      <c r="M69" s="7">
+        <v>2283</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3706,8 +3721,8 @@
       <c r="L70" s="4">
         <v>8</v>
       </c>
-      <c r="M70" s="5">
-        <v>2.2919999999999998</v>
+      <c r="M70" s="7">
+        <v>2292</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3721,8 +3736,8 @@
       <c r="D71" s="4">
         <v>22</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.02</v>
+      <c r="E71" s="9">
+        <v>1020</v>
       </c>
       <c r="F71" s="4">
         <v>348</v>
@@ -3745,8 +3760,8 @@
       <c r="L71" s="4">
         <v>10</v>
       </c>
-      <c r="M71" s="5">
-        <v>2.2480000000000002</v>
+      <c r="M71" s="7">
+        <v>2248</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3786,8 +3801,8 @@
       <c r="L72" s="4">
         <v>15</v>
       </c>
-      <c r="M72" s="5">
-        <v>2.1480000000000001</v>
+      <c r="M72" s="7">
+        <v>2148</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3801,8 +3816,8 @@
       <c r="D73" s="4">
         <v>64</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.173</v>
+      <c r="E73" s="9">
+        <v>1173</v>
       </c>
       <c r="F73" s="4">
         <v>243</v>
@@ -3825,8 +3840,8 @@
       <c r="L73" s="4">
         <v>9</v>
       </c>
-      <c r="M73" s="5">
-        <v>2.109</v>
+      <c r="M73" s="7">
+        <v>2109</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3866,8 +3881,8 @@
       <c r="L74" s="4">
         <v>10</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.925</v>
+      <c r="M74" s="7">
+        <v>1925</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3881,8 +3896,8 @@
       <c r="D75" s="4">
         <v>98</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.284</v>
+      <c r="E75" s="9">
+        <v>1284</v>
       </c>
       <c r="F75" s="4">
         <v>128</v>
@@ -3905,8 +3920,8 @@
       <c r="L75" s="4">
         <v>11</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.9430000000000001</v>
+      <c r="M75" s="7">
+        <v>1943</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3946,8 +3961,8 @@
       <c r="L76" s="4">
         <v>10</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.534</v>
+      <c r="M76" s="7">
+        <v>1534</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3961,8 +3976,8 @@
       <c r="D77" s="4">
         <v>223</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.103</v>
+      <c r="E77" s="9">
+        <v>1103</v>
       </c>
       <c r="F77" s="4">
         <v>46</v>
@@ -3985,8 +4000,8 @@
       <c r="L77" s="4">
         <v>20</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.748</v>
+      <c r="M77" s="7">
+        <v>1748</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4026,8 +4041,8 @@
       <c r="L78" s="4">
         <v>8</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.1120000000000001</v>
+      <c r="M78" s="7">
+        <v>1112</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4065,8 +4080,8 @@
       <c r="L79" s="4">
         <v>6</v>
       </c>
-      <c r="M79" s="5">
-        <v>1.298</v>
+      <c r="M79" s="7">
+        <v>1298</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4082,8 +4097,8 @@
       <c r="D80" s="4">
         <v>133</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.0109999999999999</v>
+      <c r="E80" s="9">
+        <v>1011</v>
       </c>
       <c r="F80" s="4">
         <v>22</v>
@@ -4106,8 +4121,8 @@
       <c r="L80" s="4">
         <v>6</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.3779999999999999</v>
+      <c r="M80" s="7">
+        <v>1378</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4145,8 +4160,8 @@
       <c r="L81" s="4">
         <v>6</v>
       </c>
-      <c r="M81" s="5">
-        <v>2.0139999999999998</v>
+      <c r="M81" s="7">
+        <v>2014</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4154,26 +4169,26 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.139</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.6240000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>13.539</v>
-      </c>
-      <c r="F82" s="5">
-        <v>4.407</v>
-      </c>
-      <c r="G82" s="5">
-        <v>7.0709999999999997</v>
-      </c>
-      <c r="H82" s="5">
-        <v>12.271000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>9.0860000000000003</v>
+      <c r="C82" s="7">
+        <v>1139</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1624</v>
+      </c>
+      <c r="E82" s="7">
+        <v>13539</v>
+      </c>
+      <c r="F82" s="7">
+        <v>4407</v>
+      </c>
+      <c r="G82" s="7">
+        <v>7071</v>
+      </c>
+      <c r="H82" s="7">
+        <v>12271</v>
+      </c>
+      <c r="I82" s="7">
+        <v>9086</v>
       </c>
       <c r="J82" s="5">
         <v>955</v>
@@ -4184,8 +4199,8 @@
       <c r="L82" s="5">
         <v>222</v>
       </c>
-      <c r="M82" s="5">
-        <v>50.444000000000003</v>
+      <c r="M82" s="7">
+        <v>50444</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4249,8 +4264,8 @@
       <c r="G84" s="4">
         <v>969</v>
       </c>
-      <c r="H84" s="4">
-        <v>3.4769999999999999</v>
+      <c r="H84" s="9">
+        <v>3477</v>
       </c>
       <c r="I84" s="4">
         <v>687</v>
@@ -4264,8 +4279,8 @@
       <c r="L84" s="4">
         <v>26</v>
       </c>
-      <c r="M84" s="5">
-        <v>5.1870000000000003</v>
+      <c r="M84" s="7">
+        <v>5187</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4288,11 +4303,11 @@
       <c r="G85" s="4">
         <v>738</v>
       </c>
-      <c r="H85" s="4">
-        <v>3.1669999999999998</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.0880000000000001</v>
+      <c r="H85" s="9">
+        <v>3167</v>
+      </c>
+      <c r="I85" s="9">
+        <v>1088</v>
       </c>
       <c r="J85" s="4">
         <v>21</v>
@@ -4303,8 +4318,8 @@
       <c r="L85" s="4">
         <v>13</v>
       </c>
-      <c r="M85" s="5">
-        <v>5.0410000000000004</v>
+      <c r="M85" s="7">
+        <v>5041</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4329,11 +4344,11 @@
       <c r="G86" s="4">
         <v>612</v>
       </c>
-      <c r="H86" s="4">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1.65</v>
+      <c r="H86" s="9">
+        <v>1247</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1650</v>
       </c>
       <c r="J86" s="4">
         <v>184</v>
@@ -4344,8 +4359,8 @@
       <c r="L86" s="4">
         <v>12</v>
       </c>
-      <c r="M86" s="5">
-        <v>3.734</v>
+      <c r="M86" s="7">
+        <v>3734</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4371,8 +4386,8 @@
       <c r="H87" s="4">
         <v>815</v>
       </c>
-      <c r="I87" s="4">
-        <v>1.9510000000000001</v>
+      <c r="I87" s="9">
+        <v>1951</v>
       </c>
       <c r="J87" s="4">
         <v>205</v>
@@ -4383,8 +4398,8 @@
       <c r="L87" s="4">
         <v>17</v>
       </c>
-      <c r="M87" s="5">
-        <v>3.5539999999999998</v>
+      <c r="M87" s="7">
+        <v>3554</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4409,11 +4424,11 @@
       <c r="G88" s="4">
         <v>275</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1.413</v>
+      <c r="H88" s="9">
+        <v>1122</v>
+      </c>
+      <c r="I88" s="9">
+        <v>1413</v>
       </c>
       <c r="J88" s="4">
         <v>222</v>
@@ -4424,8 +4439,8 @@
       <c r="L88" s="4">
         <v>13</v>
       </c>
-      <c r="M88" s="5">
-        <v>3.496</v>
+      <c r="M88" s="7">
+        <v>3496</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4451,8 +4466,8 @@
       <c r="H89" s="4">
         <v>866</v>
       </c>
-      <c r="I89" s="4">
-        <v>1.579</v>
+      <c r="I89" s="9">
+        <v>1579</v>
       </c>
       <c r="J89" s="4">
         <v>244</v>
@@ -4463,8 +4478,8 @@
       <c r="L89" s="4">
         <v>16</v>
       </c>
-      <c r="M89" s="5">
-        <v>3.448</v>
+      <c r="M89" s="7">
+        <v>3448</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4489,11 +4504,11 @@
       <c r="G90" s="4">
         <v>246</v>
       </c>
-      <c r="H90" s="4">
-        <v>1.202</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1.284</v>
+      <c r="H90" s="9">
+        <v>1202</v>
+      </c>
+      <c r="I90" s="9">
+        <v>1284</v>
       </c>
       <c r="J90" s="4">
         <v>282</v>
@@ -4504,8 +4519,8 @@
       <c r="L90" s="4">
         <v>12</v>
       </c>
-      <c r="M90" s="5">
-        <v>3.7080000000000002</v>
+      <c r="M90" s="7">
+        <v>3708</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4528,11 +4543,11 @@
       <c r="G91" s="4">
         <v>278</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.018</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1.244</v>
+      <c r="H91" s="9">
+        <v>1018</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1244</v>
       </c>
       <c r="J91" s="4">
         <v>242</v>
@@ -4543,8 +4558,8 @@
       <c r="L91" s="4">
         <v>22</v>
       </c>
-      <c r="M91" s="5">
-        <v>3.6760000000000002</v>
+      <c r="M91" s="7">
+        <v>3676</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4569,11 +4584,11 @@
       <c r="G92" s="4">
         <v>510</v>
       </c>
-      <c r="H92" s="4">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1.0429999999999999</v>
+      <c r="H92" s="9">
+        <v>1138</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1043</v>
       </c>
       <c r="J92" s="4">
         <v>227</v>
@@ -4584,8 +4599,8 @@
       <c r="L92" s="4">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
-        <v>3.6909999999999998</v>
+      <c r="M92" s="7">
+        <v>3691</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4608,11 +4623,11 @@
       <c r="G93" s="4">
         <v>503</v>
       </c>
-      <c r="H93" s="4">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1.0289999999999999</v>
+      <c r="H93" s="9">
+        <v>1098</v>
+      </c>
+      <c r="I93" s="9">
+        <v>1029</v>
       </c>
       <c r="J93" s="4">
         <v>169</v>
@@ -4623,8 +4638,8 @@
       <c r="L93" s="4">
         <v>13</v>
       </c>
-      <c r="M93" s="5">
-        <v>3.9239999999999999</v>
+      <c r="M93" s="7">
+        <v>3924</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4664,8 +4679,8 @@
       <c r="L94" s="4">
         <v>15</v>
       </c>
-      <c r="M94" s="5">
-        <v>3.7149999999999999</v>
+      <c r="M94" s="7">
+        <v>3715</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4703,8 +4718,8 @@
       <c r="L95" s="4">
         <v>29</v>
       </c>
-      <c r="M95" s="5">
-        <v>3.7120000000000002</v>
+      <c r="M95" s="7">
+        <v>3712</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4744,8 +4759,8 @@
       <c r="L96" s="4">
         <v>31</v>
       </c>
-      <c r="M96" s="5">
-        <v>3.2480000000000002</v>
+      <c r="M96" s="7">
+        <v>3248</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4759,8 +4774,8 @@
       <c r="D97" s="4">
         <v>24</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.0860000000000001</v>
+      <c r="E97" s="9">
+        <v>1086</v>
       </c>
       <c r="F97" s="4">
         <v>569</v>
@@ -4783,8 +4798,8 @@
       <c r="L97" s="4">
         <v>32</v>
       </c>
-      <c r="M97" s="5">
-        <v>3.43</v>
+      <c r="M97" s="7">
+        <v>3430</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4824,8 +4839,8 @@
       <c r="L98" s="4">
         <v>32</v>
       </c>
-      <c r="M98" s="5">
-        <v>3.1190000000000002</v>
+      <c r="M98" s="7">
+        <v>3119</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4839,8 +4854,8 @@
       <c r="D99" s="4">
         <v>44</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.4670000000000001</v>
+      <c r="E99" s="9">
+        <v>1467</v>
       </c>
       <c r="F99" s="4">
         <v>410</v>
@@ -4863,8 +4878,8 @@
       <c r="L99" s="4">
         <v>24</v>
       </c>
-      <c r="M99" s="5">
-        <v>3.29</v>
+      <c r="M99" s="7">
+        <v>3290</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4880,8 +4895,8 @@
       <c r="D100" s="4">
         <v>23</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.054</v>
+      <c r="E100" s="9">
+        <v>1054</v>
       </c>
       <c r="F100" s="4">
         <v>289</v>
@@ -4904,8 +4919,8 @@
       <c r="L100" s="4">
         <v>23</v>
       </c>
-      <c r="M100" s="5">
-        <v>3.0470000000000002</v>
+      <c r="M100" s="7">
+        <v>3047</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4919,8 +4934,8 @@
       <c r="D101" s="4">
         <v>94</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.982</v>
+      <c r="E101" s="9">
+        <v>1982</v>
       </c>
       <c r="F101" s="4">
         <v>237</v>
@@ -4943,8 +4958,8 @@
       <c r="L101" s="4">
         <v>27</v>
       </c>
-      <c r="M101" s="5">
-        <v>3.3660000000000001</v>
+      <c r="M101" s="7">
+        <v>3366</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4960,8 +4975,8 @@
       <c r="D102" s="4">
         <v>40</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.109</v>
+      <c r="E102" s="9">
+        <v>1109</v>
       </c>
       <c r="F102" s="4">
         <v>115</v>
@@ -4984,8 +4999,8 @@
       <c r="L102" s="4">
         <v>17</v>
       </c>
-      <c r="M102" s="5">
-        <v>2.5059999999999998</v>
+      <c r="M102" s="7">
+        <v>2506</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4999,8 +5014,8 @@
       <c r="D103" s="4">
         <v>171</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.9470000000000001</v>
+      <c r="E103" s="9">
+        <v>1947</v>
       </c>
       <c r="F103" s="4">
         <v>83</v>
@@ -5023,8 +5038,8 @@
       <c r="L103" s="4">
         <v>24</v>
       </c>
-      <c r="M103" s="5">
-        <v>2.9670000000000001</v>
+      <c r="M103" s="7">
+        <v>2967</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5040,8 +5055,8 @@
       <c r="D104" s="4">
         <v>37</v>
       </c>
-      <c r="E104" s="4">
-        <v>1.036</v>
+      <c r="E104" s="9">
+        <v>1036</v>
       </c>
       <c r="F104" s="4">
         <v>54</v>
@@ -5064,8 +5079,8 @@
       <c r="L104" s="4">
         <v>18</v>
       </c>
-      <c r="M104" s="5">
-        <v>1.827</v>
+      <c r="M104" s="7">
+        <v>1827</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5079,8 +5094,8 @@
       <c r="D105" s="4">
         <v>184</v>
       </c>
-      <c r="E105" s="4">
-        <v>1.4430000000000001</v>
+      <c r="E105" s="9">
+        <v>1443</v>
       </c>
       <c r="F105" s="4">
         <v>30</v>
@@ -5103,8 +5118,8 @@
       <c r="L105" s="4">
         <v>33</v>
       </c>
-      <c r="M105" s="5">
-        <v>2.052</v>
+      <c r="M105" s="7">
+        <v>2052</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5120,8 +5135,8 @@
       <c r="D106" s="4">
         <v>129</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.575</v>
+      <c r="E106" s="9">
+        <v>1575</v>
       </c>
       <c r="F106" s="4">
         <v>31</v>
@@ -5144,8 +5159,8 @@
       <c r="L106" s="4">
         <v>43</v>
       </c>
-      <c r="M106" s="5">
-        <v>2.2770000000000001</v>
+      <c r="M106" s="7">
+        <v>2277</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5159,8 +5174,8 @@
       <c r="D107" s="4">
         <v>604</v>
       </c>
-      <c r="E107" s="4">
-        <v>2.161</v>
+      <c r="E107" s="9">
+        <v>2161</v>
       </c>
       <c r="F107" s="4">
         <v>16</v>
@@ -5183,8 +5198,8 @@
       <c r="L107" s="4">
         <v>34</v>
       </c>
-      <c r="M107" s="5">
-        <v>3.4769999999999999</v>
+      <c r="M107" s="7">
+        <v>3477</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5195,26 +5210,26 @@
       <c r="C108" s="5">
         <v>960</v>
       </c>
-      <c r="D108" s="5">
-        <v>1.4930000000000001</v>
-      </c>
-      <c r="E108" s="5">
-        <v>18.715</v>
-      </c>
-      <c r="F108" s="5">
-        <v>6.6849999999999996</v>
-      </c>
-      <c r="G108" s="5">
-        <v>9.1329999999999991</v>
-      </c>
-      <c r="H108" s="5">
-        <v>21.988</v>
-      </c>
-      <c r="I108" s="5">
-        <v>18.975000000000001</v>
-      </c>
-      <c r="J108" s="5">
-        <v>2.37</v>
+      <c r="D108" s="7">
+        <v>1493</v>
+      </c>
+      <c r="E108" s="7">
+        <v>18715</v>
+      </c>
+      <c r="F108" s="7">
+        <v>6685</v>
+      </c>
+      <c r="G108" s="7">
+        <v>9133</v>
+      </c>
+      <c r="H108" s="7">
+        <v>21988</v>
+      </c>
+      <c r="I108" s="7">
+        <v>18975</v>
+      </c>
+      <c r="J108" s="7">
+        <v>2370</v>
       </c>
       <c r="K108" s="5">
         <v>632</v>
@@ -5222,8 +5237,8 @@
       <c r="L108" s="5">
         <v>541</v>
       </c>
-      <c r="M108" s="5">
-        <v>81.492000000000004</v>
+      <c r="M108" s="7">
+        <v>81492</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6236,20 +6251,20 @@
       <c r="D134" s="5">
         <v>566</v>
       </c>
-      <c r="E134" s="5">
-        <v>3.302</v>
+      <c r="E134" s="7">
+        <v>3302</v>
       </c>
       <c r="F134" s="5">
         <v>978</v>
       </c>
-      <c r="G134" s="5">
-        <v>1.407</v>
-      </c>
-      <c r="H134" s="5">
-        <v>2.33</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1.069</v>
+      <c r="G134" s="7">
+        <v>1407</v>
+      </c>
+      <c r="H134" s="7">
+        <v>2330</v>
+      </c>
+      <c r="I134" s="7">
+        <v>1069</v>
       </c>
       <c r="J134" s="5">
         <v>102</v>
@@ -6260,8 +6275,8 @@
       <c r="L134" s="5">
         <v>66</v>
       </c>
-      <c r="M134" s="5">
-        <v>10.11</v>
+      <c r="M134" s="7">
+        <v>10110</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7274,8 +7289,8 @@
       <c r="D160" s="5">
         <v>181</v>
       </c>
-      <c r="E160" s="5">
-        <v>1.9039999999999999</v>
+      <c r="E160" s="7">
+        <v>1904</v>
       </c>
       <c r="F160" s="5">
         <v>358</v>
@@ -7298,8 +7313,8 @@
       <c r="L160" s="5">
         <v>18</v>
       </c>
-      <c r="M160" s="5">
-        <v>4.226</v>
+      <c r="M160" s="7">
+        <v>4226</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7378,8 +7393,8 @@
       <c r="L162" s="4">
         <v>10</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.071</v>
+      <c r="M162" s="7">
+        <v>1071</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7417,8 +7432,8 @@
       <c r="L163" s="4">
         <v>3</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.06</v>
+      <c r="M163" s="7">
+        <v>1060</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -8312,20 +8327,20 @@
       <c r="D186" s="5">
         <v>653</v>
       </c>
-      <c r="E186" s="5">
-        <v>4.9020000000000001</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.609</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.2109999999999999</v>
-      </c>
-      <c r="H186" s="5">
-        <v>3.83</v>
-      </c>
-      <c r="I186" s="5">
-        <v>3.0870000000000002</v>
+      <c r="E186" s="7">
+        <v>4902</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1609</v>
+      </c>
+      <c r="G186" s="7">
+        <v>2211</v>
+      </c>
+      <c r="H186" s="7">
+        <v>3830</v>
+      </c>
+      <c r="I186" s="7">
+        <v>3087</v>
       </c>
       <c r="J186" s="5">
         <v>331</v>
@@ -8336,8 +8351,8 @@
       <c r="L186" s="5">
         <v>317</v>
       </c>
-      <c r="M186" s="5">
-        <v>17.477</v>
+      <c r="M186" s="7">
+        <v>17477</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9350,8 +9365,8 @@
       <c r="D212" s="5">
         <v>284</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.1840000000000002</v>
+      <c r="E212" s="7">
+        <v>2184</v>
       </c>
       <c r="F212" s="5">
         <v>597</v>
@@ -9359,8 +9374,8 @@
       <c r="G212" s="5">
         <v>850</v>
       </c>
-      <c r="H212" s="5">
-        <v>1.6339999999999999</v>
+      <c r="H212" s="7">
+        <v>1634</v>
       </c>
       <c r="I212" s="5">
         <v>814</v>
@@ -9374,8 +9389,8 @@
       <c r="L212" s="5">
         <v>59</v>
       </c>
-      <c r="M212" s="5">
-        <v>6.5880000000000001</v>
+      <c r="M212" s="7">
+        <v>6588</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10388,8 +10403,8 @@
       <c r="D238" s="5">
         <v>78</v>
       </c>
-      <c r="E238" s="5">
-        <v>1.139</v>
+      <c r="E238" s="7">
+        <v>1139</v>
       </c>
       <c r="F238" s="5">
         <v>249</v>
@@ -10412,8 +10427,8 @@
       <c r="L238" s="5">
         <v>4</v>
       </c>
-      <c r="M238" s="5">
-        <v>2.5070000000000001</v>
+      <c r="M238" s="7">
+        <v>2507</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11426,20 +11441,20 @@
       <c r="D264" s="5">
         <v>438</v>
       </c>
-      <c r="E264" s="5">
-        <v>2.7629999999999999</v>
+      <c r="E264" s="7">
+        <v>2763</v>
       </c>
       <c r="F264" s="5">
         <v>664</v>
       </c>
-      <c r="G264" s="5">
-        <v>1.196</v>
-      </c>
-      <c r="H264" s="5">
-        <v>1.8879999999999999</v>
-      </c>
-      <c r="I264" s="5">
-        <v>1.1180000000000001</v>
+      <c r="G264" s="7">
+        <v>1196</v>
+      </c>
+      <c r="H264" s="7">
+        <v>1888</v>
+      </c>
+      <c r="I264" s="7">
+        <v>1118</v>
       </c>
       <c r="J264" s="5">
         <v>100</v>
@@ -11450,8 +11465,8 @@
       <c r="L264" s="5">
         <v>97</v>
       </c>
-      <c r="M264" s="5">
-        <v>8.4909999999999997</v>
+      <c r="M264" s="7">
+        <v>8491</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12449,8 +12464,8 @@
       <c r="L289" s="4">
         <v>13</v>
       </c>
-      <c r="M289" s="5">
-        <v>1.2949999999999999</v>
+      <c r="M289" s="7">
+        <v>1295</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12464,20 +12479,20 @@
       <c r="D290" s="5">
         <v>726</v>
       </c>
-      <c r="E290" s="5">
-        <v>5.0730000000000004</v>
+      <c r="E290" s="7">
+        <v>5073</v>
       </c>
       <c r="F290" s="5">
         <v>946</v>
       </c>
-      <c r="G290" s="5">
-        <v>1.506</v>
-      </c>
-      <c r="H290" s="5">
-        <v>2.2229999999999999</v>
-      </c>
-      <c r="I290" s="5">
-        <v>1.1910000000000001</v>
+      <c r="G290" s="7">
+        <v>1506</v>
+      </c>
+      <c r="H290" s="7">
+        <v>2223</v>
+      </c>
+      <c r="I290" s="7">
+        <v>1191</v>
       </c>
       <c r="J290" s="5">
         <v>117</v>
@@ -12488,8 +12503,18 @@
       <c r="L290" s="5">
         <v>280</v>
       </c>
-      <c r="M290" s="5">
-        <v>12.420999999999999</v>
+      <c r="M290" s="7">
+        <v>12421</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A292" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -12499,13 +12524,13 @@
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
